--- a/batismo.xlsx
+++ b/batismo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viniciusmachado/Documents/fatima/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18BEFD0-9398-B742-95F4-CA2B09740370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C92F00C-9D68-DE46-89D4-68F60AA1C4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5867,7 +5867,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -5909,8 +5909,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6131,9 +6131,9 @@
   </sheetPr>
   <dimension ref="A1:N593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6964,6 +6964,9 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22" s="4">
         <v>44935.731193368054</v>
       </c>
@@ -7000,6 +7003,9 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="B23" s="4">
         <v>44935.732897962967</v>
       </c>
@@ -7036,6 +7042,9 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24" s="4">
         <v>44935.876744340276</v>
       </c>
@@ -7072,6 +7081,9 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25" s="4">
         <v>44936.445328217596</v>
       </c>
@@ -7108,6 +7120,9 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26" s="4">
         <v>44936.446993356483</v>
       </c>
@@ -7144,6 +7159,9 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27" s="4">
         <v>44936.451237060188</v>
       </c>
@@ -7180,6 +7198,9 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28" s="4">
         <v>44936.463629178237</v>
       </c>
@@ -7216,6 +7237,9 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="B29" s="4">
         <v>44936.599957129627</v>
       </c>
@@ -7252,6 +7276,9 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="B30" s="4">
         <v>44936.614521932876</v>
       </c>
@@ -7288,6 +7315,9 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
       <c r="B31" s="4">
         <v>44936.621632210648</v>
       </c>
@@ -7324,6 +7354,9 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
       <c r="B32" s="4">
         <v>44936.663713692134</v>
       </c>
@@ -7359,7 +7392,10 @@
       </c>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
       <c r="B33" s="4">
         <v>44936.815562870368</v>
       </c>
@@ -7395,7 +7431,10 @@
       </c>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
       <c r="B34" s="4">
         <v>44937.362381597224</v>
       </c>
@@ -7431,7 +7470,10 @@
       </c>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
       <c r="B35" s="4">
         <v>44937.646346041671</v>
       </c>
@@ -7467,7 +7509,10 @@
       </c>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
       <c r="B36" s="4">
         <v>44937.657490127312</v>
       </c>
@@ -7503,7 +7548,10 @@
       </c>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
       <c r="B37" s="4">
         <v>44937.694643240742</v>
       </c>
@@ -7539,7 +7587,10 @@
       </c>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
       <c r="B38" s="4">
         <v>44937.699068425922</v>
       </c>
@@ -7575,7 +7626,10 @@
       </c>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
       <c r="B39" s="4">
         <v>44937.728877696762</v>
       </c>
@@ -7610,7 +7664,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
       <c r="B40" s="4">
         <v>44937.924329247689</v>
       </c>
@@ -7646,7 +7703,10 @@
       </c>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
       <c r="B41" s="4">
         <v>44938.643220972226</v>
       </c>
@@ -7682,7 +7742,10 @@
       </c>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
       <c r="B42" s="4">
         <v>44938.734100937501</v>
       </c>
@@ -7717,7 +7780,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
       <c r="B43" s="4">
         <v>44939.483482291667</v>
       </c>
@@ -7753,7 +7819,10 @@
       </c>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
       <c r="B44" s="4">
         <v>44939.600030335649</v>
       </c>
@@ -7789,7 +7858,10 @@
       </c>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
       <c r="B45" s="4">
         <v>44939.600734733795</v>
       </c>
@@ -7825,7 +7897,10 @@
       </c>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
       <c r="B46" s="4">
         <v>44939.623696006944</v>
       </c>
@@ -7861,7 +7936,10 @@
       </c>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
       <c r="B47" s="4">
         <v>44941.404229687498</v>
       </c>
@@ -7897,7 +7975,10 @@
       </c>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
       <c r="B48" s="4">
         <v>44942.433730960649</v>
       </c>
@@ -7933,7 +8014,10 @@
       </c>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
       <c r="B49" s="4">
         <v>44942.478975347221</v>
       </c>
@@ -7969,7 +8053,10 @@
       </c>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
       <c r="B50" s="4">
         <v>44942.677625902783</v>
       </c>
@@ -8005,7 +8092,10 @@
       </c>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
       <c r="B51" s="4">
         <v>44942.694272476852</v>
       </c>
@@ -8041,7 +8131,10 @@
       </c>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
       <c r="B52" s="4">
         <v>44942.71147440972</v>
       </c>
@@ -8077,7 +8170,10 @@
       </c>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
       <c r="B53" s="4">
         <v>44942.718790289349</v>
       </c>
@@ -8113,7 +8209,10 @@
       </c>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
       <c r="B54" s="4">
         <v>44942.863503576387</v>
       </c>
@@ -8149,7 +8248,10 @@
       </c>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
       <c r="B55" s="4">
         <v>44943.398758784722</v>
       </c>
@@ -8185,7 +8287,10 @@
       </c>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
       <c r="B56" s="4">
         <v>44943.521753009263</v>
       </c>
@@ -8221,7 +8326,10 @@
       </c>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
       <c r="B57" s="4">
         <v>44943.635555856483</v>
       </c>
@@ -8257,7 +8365,10 @@
       </c>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
       <c r="B58" s="4">
         <v>44943.643746122689</v>
       </c>
@@ -8293,7 +8404,10 @@
       </c>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
       <c r="B59" s="4">
         <v>44943.647413715276</v>
       </c>
@@ -8329,7 +8443,10 @@
       </c>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
       <c r="B60" s="4">
         <v>44943.657093981485</v>
       </c>
@@ -8365,7 +8482,10 @@
       </c>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
       <c r="B61" s="4">
         <v>44943.661208726851</v>
       </c>
@@ -8401,7 +8521,10 @@
       </c>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
       <c r="B62" s="4">
         <v>44943.664146921292</v>
       </c>
@@ -8437,7 +8560,10 @@
       </c>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
       <c r="B63" s="4">
         <v>44943.666692013889</v>
       </c>
@@ -8473,7 +8599,10 @@
       </c>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
       <c r="B64" s="4">
         <v>44943.789450335651</v>
       </c>
@@ -8508,7 +8637,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
       <c r="B65" s="4">
         <v>44944.49772086805</v>
       </c>
@@ -8544,7 +8676,10 @@
       </c>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
       <c r="B66" s="4">
         <v>44944.720215277775</v>
       </c>
@@ -8580,7 +8715,10 @@
       </c>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
       <c r="B67" s="4">
         <v>44945.584467476852</v>
       </c>
@@ -8616,7 +8754,10 @@
       </c>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
       <c r="B68" s="4">
         <v>44945.648124548607</v>
       </c>
@@ -8652,7 +8793,10 @@
       </c>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
       <c r="B69" s="4">
         <v>44945.750013206023</v>
       </c>
@@ -8688,7 +8832,10 @@
       </c>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
       <c r="B70" s="4">
         <v>44945.851980532403</v>
       </c>
@@ -8724,7 +8871,10 @@
       </c>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
       <c r="B71" s="4">
         <v>44946.279187905093</v>
       </c>
@@ -8760,7 +8910,10 @@
       </c>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
       <c r="B72" s="4">
         <v>44946.684480659722</v>
       </c>
@@ -8796,7 +8949,10 @@
       </c>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
       <c r="B73" s="4">
         <v>44947.542830497681</v>
       </c>
@@ -8832,7 +8988,10 @@
       </c>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
       <c r="B74" s="4">
         <v>44948.629867731477</v>
       </c>
@@ -8868,7 +9027,10 @@
       </c>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
       <c r="B75" s="4">
         <v>44948.700523333333</v>
       </c>
@@ -8904,7 +9066,10 @@
       </c>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
       <c r="B76" s="4">
         <v>44948.893468206021</v>
       </c>
@@ -8940,7 +9105,10 @@
       </c>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
       <c r="B77" s="4">
         <v>44949.346306562496</v>
       </c>
@@ -8976,7 +9144,10 @@
       </c>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
       <c r="B78" s="4">
         <v>44949.467333923611</v>
       </c>
@@ -9012,7 +9183,10 @@
       </c>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
       <c r="B79" s="4">
         <v>44949.511848993061</v>
       </c>
@@ -9048,7 +9222,10 @@
       </c>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>79</v>
+      </c>
       <c r="B80" s="4">
         <v>44949.558679201393</v>
       </c>
@@ -9084,7 +9261,10 @@
       </c>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
       <c r="B81" s="4">
         <v>44949.749922581017</v>
       </c>
@@ -9119,7 +9299,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>81</v>
+      </c>
       <c r="B82" s="4">
         <v>44950.342668182871</v>
       </c>
@@ -9155,7 +9338,10 @@
       </c>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>82</v>
+      </c>
       <c r="B83" s="4">
         <v>44950.443884548615</v>
       </c>
@@ -9191,7 +9377,10 @@
       </c>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>83</v>
+      </c>
       <c r="B84" s="4">
         <v>44950.460152187501</v>
       </c>
@@ -9227,7 +9416,10 @@
       </c>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>84</v>
+      </c>
       <c r="B85" s="4">
         <v>44950.462800219902</v>
       </c>
@@ -9263,7 +9455,10 @@
       </c>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>85</v>
+      </c>
       <c r="B86" s="4">
         <v>44950.723475486113</v>
       </c>
@@ -9299,7 +9494,10 @@
       </c>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>86</v>
+      </c>
       <c r="B87" s="4">
         <v>44951.396470115738</v>
       </c>
@@ -9335,7 +9533,10 @@
       </c>
       <c r="M87" s="1"/>
     </row>
-    <row r="88" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>87</v>
+      </c>
       <c r="B88" s="4">
         <v>44951.670184328701</v>
       </c>
@@ -9371,7 +9572,10 @@
       </c>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>88</v>
+      </c>
       <c r="B89" s="4">
         <v>44951.711343344912</v>
       </c>
@@ -9407,7 +9611,10 @@
       </c>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>89</v>
+      </c>
       <c r="B90" s="4">
         <v>44951.712866932867</v>
       </c>
@@ -9443,7 +9650,10 @@
       </c>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>90</v>
+      </c>
       <c r="B91" s="4">
         <v>44951.714924027779</v>
       </c>
@@ -9479,7 +9689,10 @@
       </c>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>91</v>
+      </c>
       <c r="B92" s="4">
         <v>44951.719417731481</v>
       </c>
@@ -9515,7 +9728,10 @@
       </c>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>92</v>
+      </c>
       <c r="B93" s="4">
         <v>44951.741744907413</v>
       </c>
@@ -9550,7 +9766,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>93</v>
+      </c>
       <c r="B94" s="4">
         <v>44951.742724942131</v>
       </c>
@@ -9586,7 +9805,10 @@
       </c>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>94</v>
+      </c>
       <c r="B95" s="4">
         <v>44951.822534837964</v>
       </c>
@@ -9622,7 +9844,10 @@
       </c>
       <c r="M95" s="1"/>
     </row>
-    <row r="96" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>95</v>
+      </c>
       <c r="B96" s="4">
         <v>44951.905043240738</v>
       </c>
@@ -9658,7 +9883,10 @@
       </c>
       <c r="M96" s="1"/>
     </row>
-    <row r="97" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>96</v>
+      </c>
       <c r="B97" s="4">
         <v>44952.346528275462</v>
       </c>
@@ -9694,7 +9922,10 @@
       </c>
       <c r="M97" s="1"/>
     </row>
-    <row r="98" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>97</v>
+      </c>
       <c r="B98" s="4">
         <v>44952.457721782412</v>
       </c>
@@ -9730,7 +9961,10 @@
       </c>
       <c r="M98" s="1"/>
     </row>
-    <row r="99" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>98</v>
+      </c>
       <c r="B99" s="4">
         <v>44952.458506979165</v>
       </c>
@@ -9766,7 +10000,10 @@
       </c>
       <c r="M99" s="1"/>
     </row>
-    <row r="100" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>99</v>
+      </c>
       <c r="B100" s="4">
         <v>44952.568315497687</v>
       </c>
@@ -9802,7 +10039,10 @@
       </c>
       <c r="M100" s="1"/>
     </row>
-    <row r="101" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>100</v>
+      </c>
       <c r="B101" s="4">
         <v>44952.644253865743</v>
       </c>
@@ -9838,7 +10078,10 @@
       </c>
       <c r="M101" s="1"/>
     </row>
-    <row r="102" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>101</v>
+      </c>
       <c r="B102" s="4">
         <v>44952.645151377314</v>
       </c>
@@ -9874,7 +10117,10 @@
       </c>
       <c r="M102" s="1"/>
     </row>
-    <row r="103" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>102</v>
+      </c>
       <c r="B103" s="4">
         <v>44952.733951365743</v>
       </c>
@@ -9910,7 +10156,10 @@
       </c>
       <c r="M103" s="1"/>
     </row>
-    <row r="104" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>103</v>
+      </c>
       <c r="B104" s="4">
         <v>44953.394743217592</v>
       </c>
@@ -9946,7 +10195,10 @@
       </c>
       <c r="M104" s="1"/>
     </row>
-    <row r="105" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>104</v>
+      </c>
       <c r="B105" s="4">
         <v>44953.44098550926</v>
       </c>
@@ -9982,7 +10234,10 @@
       </c>
       <c r="M105" s="1"/>
     </row>
-    <row r="106" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>105</v>
+      </c>
       <c r="B106" s="4">
         <v>44953.643664456016</v>
       </c>
@@ -10018,7 +10273,10 @@
       </c>
       <c r="M106" s="1"/>
     </row>
-    <row r="107" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>106</v>
+      </c>
       <c r="B107" s="4">
         <v>44954.44642388889</v>
       </c>
@@ -10054,7 +10312,10 @@
       </c>
       <c r="M107" s="1"/>
     </row>
-    <row r="108" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>107</v>
+      </c>
       <c r="B108" s="4">
         <v>44954.561927187504</v>
       </c>
@@ -10090,7 +10351,10 @@
       </c>
       <c r="M108" s="1"/>
     </row>
-    <row r="109" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>108</v>
+      </c>
       <c r="B109" s="4">
         <v>44954.590686585652</v>
       </c>
@@ -10126,7 +10390,10 @@
       </c>
       <c r="M109" s="1"/>
     </row>
-    <row r="110" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>109</v>
+      </c>
       <c r="B110" s="4">
         <v>44955.614170601853</v>
       </c>
@@ -10162,7 +10429,10 @@
       </c>
       <c r="M110" s="1"/>
     </row>
-    <row r="111" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>110</v>
+      </c>
       <c r="B111" s="4">
         <v>44957.486757372681</v>
       </c>
@@ -10198,7 +10468,10 @@
       </c>
       <c r="M111" s="1"/>
     </row>
-    <row r="112" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>111</v>
+      </c>
       <c r="B112" s="4">
         <v>44957.624017893519</v>
       </c>
@@ -10234,7 +10507,10 @@
       </c>
       <c r="M112" s="1"/>
     </row>
-    <row r="113" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>112</v>
+      </c>
       <c r="B113" s="4">
         <v>44958.424463414354</v>
       </c>
@@ -10270,7 +10546,10 @@
       </c>
       <c r="M113" s="1"/>
     </row>
-    <row r="114" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>113</v>
+      </c>
       <c r="B114" s="4">
         <v>44958.436201782402</v>
       </c>
@@ -10306,7 +10585,10 @@
       </c>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>114</v>
+      </c>
       <c r="B115" s="4">
         <v>44958.572270833334</v>
       </c>
@@ -10342,7 +10624,10 @@
       </c>
       <c r="M115" s="1"/>
     </row>
-    <row r="116" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>115</v>
+      </c>
       <c r="B116" s="4">
         <v>44958.599704409724</v>
       </c>
@@ -10378,7 +10663,10 @@
       </c>
       <c r="M116" s="1"/>
     </row>
-    <row r="117" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>116</v>
+      </c>
       <c r="B117" s="4">
         <v>44958.621957094903</v>
       </c>
@@ -10414,7 +10702,10 @@
       </c>
       <c r="M117" s="1"/>
     </row>
-    <row r="118" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>117</v>
+      </c>
       <c r="B118" s="4">
         <v>44958.62549766204</v>
       </c>
@@ -10450,7 +10741,10 @@
       </c>
       <c r="M118" s="1"/>
     </row>
-    <row r="119" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>118</v>
+      </c>
       <c r="B119" s="4">
         <v>44958.792017222222</v>
       </c>
@@ -10486,7 +10780,10 @@
       </c>
       <c r="M119" s="1"/>
     </row>
-    <row r="120" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>119</v>
+      </c>
       <c r="B120" s="4">
         <v>44958.792865208336</v>
       </c>
@@ -10522,7 +10819,10 @@
       </c>
       <c r="M120" s="1"/>
     </row>
-    <row r="121" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>120</v>
+      </c>
       <c r="B121" s="4">
         <v>44959.278550949079</v>
       </c>
@@ -10558,7 +10858,10 @@
       </c>
       <c r="M121" s="1"/>
     </row>
-    <row r="122" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>121</v>
+      </c>
       <c r="B122" s="4">
         <v>44959.421780034725</v>
       </c>
@@ -10594,7 +10897,10 @@
       </c>
       <c r="M122" s="1"/>
     </row>
-    <row r="123" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>122</v>
+      </c>
       <c r="B123" s="4">
         <v>44960.435364606485</v>
       </c>
@@ -10630,7 +10936,10 @@
       </c>
       <c r="M123" s="1"/>
     </row>
-    <row r="124" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>123</v>
+      </c>
       <c r="B124" s="4">
         <v>44960.626221122686</v>
       </c>
@@ -10666,7 +10975,10 @@
       </c>
       <c r="M124" s="1"/>
     </row>
-    <row r="125" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>124</v>
+      </c>
       <c r="B125" s="4">
         <v>44960.63062300926</v>
       </c>
@@ -10702,7 +11014,10 @@
       </c>
       <c r="M125" s="1"/>
     </row>
-    <row r="126" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>125</v>
+      </c>
       <c r="B126" s="4">
         <v>44960.684207534723</v>
       </c>
@@ -10738,7 +11053,10 @@
       </c>
       <c r="M126" s="1"/>
     </row>
-    <row r="127" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>126</v>
+      </c>
       <c r="B127" s="4">
         <v>44960.779111921292</v>
       </c>
@@ -10774,7 +11092,10 @@
       </c>
       <c r="M127" s="1"/>
     </row>
-    <row r="128" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>127</v>
+      </c>
       <c r="B128" s="4">
         <v>44960.849235868052</v>
       </c>
@@ -10810,7 +11131,10 @@
       </c>
       <c r="M128" s="1"/>
     </row>
-    <row r="129" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>128</v>
+      </c>
       <c r="B129" s="4">
         <v>44961.508288495374</v>
       </c>
@@ -10846,7 +11170,10 @@
       </c>
       <c r="M129" s="1"/>
     </row>
-    <row r="130" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>129</v>
+      </c>
       <c r="B130" s="4">
         <v>44963.948083530093</v>
       </c>
@@ -10882,7 +11209,10 @@
       </c>
       <c r="M130" s="1"/>
     </row>
-    <row r="131" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>130</v>
+      </c>
       <c r="B131" s="4">
         <v>44964.402768680557</v>
       </c>
@@ -10918,7 +11248,10 @@
       </c>
       <c r="M131" s="1"/>
     </row>
-    <row r="132" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>131</v>
+      </c>
       <c r="B132" s="4">
         <v>44964.408489189816</v>
       </c>
@@ -10954,7 +11287,10 @@
       </c>
       <c r="M132" s="1"/>
     </row>
-    <row r="133" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>132</v>
+      </c>
       <c r="B133" s="4">
         <v>44964.409822604168</v>
       </c>
@@ -10990,7 +11326,10 @@
       </c>
       <c r="M133" s="1"/>
     </row>
-    <row r="134" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>133</v>
+      </c>
       <c r="B134" s="4">
         <v>44964.713955798608</v>
       </c>
@@ -11026,7 +11365,10 @@
       </c>
       <c r="M134" s="1"/>
     </row>
-    <row r="135" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>134</v>
+      </c>
       <c r="B135" s="4">
         <v>44965.617942939818</v>
       </c>
@@ -11062,7 +11404,10 @@
       </c>
       <c r="M135" s="1"/>
     </row>
-    <row r="136" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>135</v>
+      </c>
       <c r="B136" s="4">
         <v>44965.727369155094</v>
       </c>
@@ -11098,7 +11443,10 @@
       </c>
       <c r="M136" s="1"/>
     </row>
-    <row r="137" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>136</v>
+      </c>
       <c r="B137" s="4">
         <v>44966.435710405094</v>
       </c>
@@ -11134,7 +11482,10 @@
       </c>
       <c r="M137" s="1"/>
     </row>
-    <row r="138" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>137</v>
+      </c>
       <c r="B138" s="4">
         <v>44966.450547650464</v>
       </c>
@@ -11170,7 +11521,10 @@
       </c>
       <c r="M138" s="1"/>
     </row>
-    <row r="139" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>138</v>
+      </c>
       <c r="B139" s="4">
         <v>44966.580316192129</v>
       </c>
@@ -11206,7 +11560,10 @@
       </c>
       <c r="M139" s="1"/>
     </row>
-    <row r="140" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>139</v>
+      </c>
       <c r="B140" s="4">
         <v>44966.728645555559</v>
       </c>
@@ -11242,7 +11599,10 @@
       </c>
       <c r="M140" s="1"/>
     </row>
-    <row r="141" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>140</v>
+      </c>
       <c r="B141" s="4">
         <v>44967.337564976857</v>
       </c>
@@ -11278,7 +11638,10 @@
       </c>
       <c r="M141" s="1"/>
     </row>
-    <row r="142" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>141</v>
+      </c>
       <c r="B142" s="4">
         <v>44967.542585219911</v>
       </c>
@@ -11314,7 +11677,10 @@
       </c>
       <c r="M142" s="1"/>
     </row>
-    <row r="143" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <v>142</v>
+      </c>
       <c r="B143" s="4">
         <v>44967.545813703706</v>
       </c>
@@ -11350,7 +11716,10 @@
       </c>
       <c r="M143" s="1"/>
     </row>
-    <row r="144" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A144">
+        <v>143</v>
+      </c>
       <c r="B144" s="4">
         <v>44970.449685798609</v>
       </c>
@@ -11386,7 +11755,10 @@
       </c>
       <c r="M144" s="1"/>
     </row>
-    <row r="145" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A145">
+        <v>144</v>
+      </c>
       <c r="B145" s="4">
         <v>44970.606905462962</v>
       </c>
@@ -11422,7 +11794,10 @@
       </c>
       <c r="M145" s="1"/>
     </row>
-    <row r="146" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A146">
+        <v>145</v>
+      </c>
       <c r="B146" s="4">
         <v>44970.701196793976</v>
       </c>
@@ -11458,7 +11833,10 @@
       </c>
       <c r="M146" s="1"/>
     </row>
-    <row r="147" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A147">
+        <v>146</v>
+      </c>
       <c r="B147" s="4">
         <v>44971.384623761573</v>
       </c>
@@ -11494,7 +11872,10 @@
       </c>
       <c r="M147" s="1"/>
     </row>
-    <row r="148" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A148">
+        <v>147</v>
+      </c>
       <c r="B148" s="4">
         <v>44971.4000318287</v>
       </c>
@@ -11530,7 +11911,10 @@
       </c>
       <c r="M148" s="1"/>
     </row>
-    <row r="149" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A149">
+        <v>148</v>
+      </c>
       <c r="B149" s="4">
         <v>44971.741226736107</v>
       </c>
@@ -11566,7 +11950,10 @@
       </c>
       <c r="M149" s="1"/>
     </row>
-    <row r="150" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A150">
+        <v>149</v>
+      </c>
       <c r="B150" s="4">
         <v>44971.778910856483</v>
       </c>
@@ -11602,7 +11989,10 @@
       </c>
       <c r="M150" s="1"/>
     </row>
-    <row r="151" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A151">
+        <v>150</v>
+      </c>
       <c r="B151" s="4">
         <v>44971.780751863422</v>
       </c>
@@ -11638,7 +12028,10 @@
       </c>
       <c r="M151" s="1"/>
     </row>
-    <row r="152" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A152">
+        <v>151</v>
+      </c>
       <c r="B152" s="4">
         <v>44972.433602164354</v>
       </c>
@@ -11673,7 +12066,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A153">
+        <v>152</v>
+      </c>
       <c r="B153" s="4">
         <v>44973.627255648149</v>
       </c>
@@ -11708,7 +12104,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A154">
+        <v>153</v>
+      </c>
       <c r="B154" s="4">
         <v>44980.464846851857</v>
       </c>
@@ -11743,7 +12142,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A155">
+        <v>154</v>
+      </c>
       <c r="B155" s="4">
         <v>44980.476248090279</v>
       </c>
@@ -11778,7 +12180,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A156">
+        <v>155</v>
+      </c>
       <c r="B156" s="4">
         <v>44980.482827928237</v>
       </c>
@@ -11813,7 +12218,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A157">
+        <v>156</v>
+      </c>
       <c r="B157" s="4">
         <v>44980.816799432869</v>
       </c>
@@ -11848,7 +12256,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A158">
+        <v>157</v>
+      </c>
       <c r="B158" s="4">
         <v>44981.461902083334</v>
       </c>
@@ -11883,7 +12294,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A159">
+        <v>158</v>
+      </c>
       <c r="B159" s="4">
         <v>44981.631498136572</v>
       </c>
@@ -11918,7 +12332,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A160">
+        <v>159</v>
+      </c>
       <c r="B160" s="4">
         <v>44981.672425300931</v>
       </c>
@@ -11953,7 +12370,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A161">
+        <v>160</v>
+      </c>
       <c r="B161" s="4">
         <v>44981.677306666665</v>
       </c>
@@ -11988,7 +12408,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A162">
+        <v>161</v>
+      </c>
       <c r="B162" s="4">
         <v>44981.693342141203</v>
       </c>
@@ -12023,7 +12446,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A163">
+        <v>162</v>
+      </c>
       <c r="B163" s="4">
         <v>44981.706161793976</v>
       </c>
@@ -12058,7 +12484,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A164">
+        <v>163</v>
+      </c>
       <c r="B164" s="4">
         <v>44982.357661863425</v>
       </c>
@@ -12093,7 +12522,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A165">
+        <v>164</v>
+      </c>
       <c r="B165" s="4">
         <v>44982.477781921298</v>
       </c>
@@ -12128,7 +12560,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A166">
+        <v>165</v>
+      </c>
       <c r="B166" s="4">
         <v>44982.479343750005</v>
       </c>
@@ -12163,7 +12598,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A167">
+        <v>166</v>
+      </c>
       <c r="B167" s="4">
         <v>44982.753090879633</v>
       </c>
@@ -12198,7 +12636,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A168">
+        <v>167</v>
+      </c>
       <c r="B168" s="4">
         <v>44983.404379363426</v>
       </c>
@@ -12233,7 +12674,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A169">
+        <v>168</v>
+      </c>
       <c r="B169" s="4">
         <v>44983.759087881946</v>
       </c>
@@ -12268,7 +12712,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A170">
+        <v>169</v>
+      </c>
       <c r="B170" s="4">
         <v>44984.425624317126</v>
       </c>
@@ -12303,7 +12750,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A171">
+        <v>170</v>
+      </c>
       <c r="B171" s="4">
         <v>44984.752037280094</v>
       </c>
@@ -12338,7 +12788,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A172">
+        <v>171</v>
+      </c>
       <c r="B172" s="4">
         <v>44984.76104813657</v>
       </c>
@@ -12373,7 +12826,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A173">
+        <v>172</v>
+      </c>
       <c r="B173" s="4">
         <v>44985.392887291666</v>
       </c>
@@ -12408,7 +12864,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A174">
+        <v>173</v>
+      </c>
       <c r="B174" s="4">
         <v>44985.4842369213</v>
       </c>
@@ -12443,7 +12902,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A175">
+        <v>174</v>
+      </c>
       <c r="B175" s="4">
         <v>44985.674395787035</v>
       </c>
@@ -12478,7 +12940,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A176">
+        <v>175</v>
+      </c>
       <c r="B176" s="4">
         <v>44985.726994537035</v>
       </c>
@@ -12513,7 +12978,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A177">
+        <v>176</v>
+      </c>
       <c r="B177" s="4">
         <v>44985.729466712961</v>
       </c>
@@ -12548,7 +13016,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A178">
+        <v>177</v>
+      </c>
       <c r="B178" s="4">
         <v>44985.815358587963</v>
       </c>
@@ -12583,7 +13054,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A179">
+        <v>178</v>
+      </c>
       <c r="B179" s="4">
         <v>44986.456234976853</v>
       </c>
@@ -12618,7 +13092,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A180">
+        <v>179</v>
+      </c>
       <c r="B180" s="4">
         <v>44986.45966010417</v>
       </c>
@@ -12653,7 +13130,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A181">
+        <v>180</v>
+      </c>
       <c r="B181" s="4">
         <v>44986.467241006947</v>
       </c>
@@ -12688,7 +13168,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A182">
+        <v>181</v>
+      </c>
       <c r="B182" s="4">
         <v>44986.518898379625</v>
       </c>
@@ -12723,7 +13206,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A183">
+        <v>182</v>
+      </c>
       <c r="B183" s="4">
         <v>44986.638488877317</v>
       </c>
@@ -12758,7 +13244,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A184">
+        <v>183</v>
+      </c>
       <c r="B184" s="4">
         <v>44986.640750115737</v>
       </c>
@@ -12793,7 +13282,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A185">
+        <v>184</v>
+      </c>
       <c r="B185" s="4">
         <v>44986.770227210647</v>
       </c>
@@ -12828,7 +13320,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A186">
+        <v>185</v>
+      </c>
       <c r="B186" s="4">
         <v>44987.365430821759</v>
       </c>
@@ -12863,7 +13358,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A187">
+        <v>186</v>
+      </c>
       <c r="B187" s="4">
         <v>44987.519727349536</v>
       </c>
@@ -12898,7 +13396,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A188">
+        <v>187</v>
+      </c>
       <c r="B188" s="4">
         <v>44987.611399166664</v>
       </c>
@@ -12933,7 +13434,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A189">
+        <v>188</v>
+      </c>
       <c r="B189" s="4">
         <v>44987.752693425922</v>
       </c>
@@ -12968,7 +13472,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A190">
+        <v>189</v>
+      </c>
       <c r="B190" s="4">
         <v>44988.415851990736</v>
       </c>
@@ -13003,7 +13510,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A191">
+        <v>190</v>
+      </c>
       <c r="B191" s="4">
         <v>44988.687584178246</v>
       </c>
@@ -13038,7 +13548,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A192">
+        <v>191</v>
+      </c>
       <c r="B192" s="4">
         <v>44988.687649826388</v>
       </c>
@@ -13073,7 +13586,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A193">
+        <v>192</v>
+      </c>
       <c r="B193" s="4">
         <v>44988.732561180557</v>
       </c>
@@ -13108,7 +13624,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A194">
+        <v>193</v>
+      </c>
       <c r="B194" s="4">
         <v>44988.786133090282</v>
       </c>
@@ -13143,7 +13662,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A195">
+        <v>194</v>
+      </c>
       <c r="B195" s="4">
         <v>44988.850736932873</v>
       </c>
@@ -13178,7 +13700,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A196">
+        <v>195</v>
+      </c>
       <c r="B196" s="4">
         <v>44989.483997002317</v>
       </c>
@@ -13213,7 +13738,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A197">
+        <v>196</v>
+      </c>
       <c r="B197" s="4">
         <v>44989.795944641199</v>
       </c>
@@ -13248,7 +13776,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A198">
+        <v>197</v>
+      </c>
       <c r="B198" s="4">
         <v>44990.390250706019</v>
       </c>
@@ -13283,7 +13814,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A199">
+        <v>198</v>
+      </c>
       <c r="B199" s="4">
         <v>44990.415358819446</v>
       </c>
@@ -13318,7 +13852,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A200">
+        <v>199</v>
+      </c>
       <c r="B200" s="4">
         <v>44991.613119340276</v>
       </c>
@@ -13353,7 +13890,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A201">
+        <v>200</v>
+      </c>
       <c r="B201" s="4">
         <v>44991.854221412039</v>
       </c>
@@ -13388,7 +13928,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A202">
+        <v>201</v>
+      </c>
       <c r="B202" s="4">
         <v>44991.89269659722</v>
       </c>
@@ -13423,7 +13966,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A203">
+        <v>202</v>
+      </c>
       <c r="B203" s="4">
         <v>44991.964035659723</v>
       </c>
@@ -13458,7 +14004,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A204">
+        <v>203</v>
+      </c>
       <c r="B204" s="4">
         <v>44991.966123425926</v>
       </c>
@@ -13493,7 +14042,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A205">
+        <v>204</v>
+      </c>
       <c r="B205" s="4">
         <v>44992.62099505787</v>
       </c>
@@ -13528,7 +14080,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A206">
+        <v>205</v>
+      </c>
       <c r="B206" s="4">
         <v>44992.683855474534</v>
       </c>
@@ -13563,7 +14118,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A207">
+        <v>206</v>
+      </c>
       <c r="B207" s="4">
         <v>44992.703386307869</v>
       </c>
@@ -13598,7 +14156,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A208">
+        <v>207</v>
+      </c>
       <c r="B208" s="4">
         <v>44992.724860949078</v>
       </c>
@@ -13633,7 +14194,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A209">
+        <v>208</v>
+      </c>
       <c r="B209" s="4">
         <v>44992.747126099537</v>
       </c>
@@ -13668,7 +14232,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A210">
+        <v>209</v>
+      </c>
       <c r="B210" s="4">
         <v>44992.854824884256</v>
       </c>
@@ -13703,7 +14270,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A211">
+        <v>210</v>
+      </c>
       <c r="B211" s="4">
         <v>44993.426593865741</v>
       </c>
@@ -13738,7 +14308,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A212">
+        <v>211</v>
+      </c>
       <c r="B212" s="4">
         <v>44993.446828483793</v>
       </c>
@@ -13773,7 +14346,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A213">
+        <v>212</v>
+      </c>
       <c r="B213" s="4">
         <v>44993.501242465281</v>
       </c>
@@ -13808,7 +14384,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A214">
+        <v>213</v>
+      </c>
       <c r="B214" s="4">
         <v>44993.810055497685</v>
       </c>
@@ -13843,7 +14422,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A215">
+        <v>214</v>
+      </c>
       <c r="B215" s="4">
         <v>44994.433129791665</v>
       </c>
@@ -13878,7 +14460,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A216">
+        <v>215</v>
+      </c>
       <c r="B216" s="4">
         <v>44994.434809664352</v>
       </c>
@@ -13913,7 +14498,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A217">
+        <v>216</v>
+      </c>
       <c r="B217" s="4">
         <v>44994.650277071763</v>
       </c>
@@ -13948,7 +14536,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A218">
+        <v>217</v>
+      </c>
       <c r="B218" s="4">
         <v>44994.650719652782</v>
       </c>
@@ -13983,7 +14574,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A219">
+        <v>218</v>
+      </c>
       <c r="B219" s="4">
         <v>44994.671519814816</v>
       </c>
@@ -14018,7 +14612,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A220">
+        <v>219</v>
+      </c>
       <c r="B220" s="4">
         <v>44994.677446574075</v>
       </c>
@@ -14053,7 +14650,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A221">
+        <v>220</v>
+      </c>
       <c r="B221" s="4">
         <v>44994.711942222224</v>
       </c>
@@ -14088,7 +14688,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A222">
+        <v>221</v>
+      </c>
       <c r="B222" s="4">
         <v>44994.820224722222</v>
       </c>
@@ -14123,7 +14726,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A223">
+        <v>222</v>
+      </c>
       <c r="B223" s="4">
         <v>44994.880103958334</v>
       </c>
@@ -14158,7 +14764,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A224">
+        <v>223</v>
+      </c>
       <c r="B224" s="4">
         <v>44995.359197395832</v>
       </c>
@@ -14193,7 +14802,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A225">
+        <v>224</v>
+      </c>
       <c r="B225" s="4">
         <v>44995.418208599542</v>
       </c>
@@ -14228,7 +14840,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A226">
+        <v>225</v>
+      </c>
       <c r="B226" s="4">
         <v>44995.420930821754</v>
       </c>
@@ -14263,7 +14878,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A227">
+        <v>226</v>
+      </c>
       <c r="B227" s="4">
         <v>44995.499026423611</v>
       </c>
@@ -14298,7 +14916,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A228">
+        <v>227</v>
+      </c>
       <c r="B228" s="4">
         <v>44995.535716377315</v>
       </c>
@@ -14333,7 +14954,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A229">
+        <v>228</v>
+      </c>
       <c r="B229" s="4">
         <v>44997.530576412042</v>
       </c>
@@ -14368,7 +14992,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A230">
+        <v>229</v>
+      </c>
       <c r="B230" s="4">
         <v>44997.612800590279</v>
       </c>
@@ -14403,7 +15030,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A231">
+        <v>230</v>
+      </c>
       <c r="B231" s="4">
         <v>44998.295651724533</v>
       </c>
@@ -14438,7 +15068,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A232">
+        <v>231</v>
+      </c>
       <c r="B232" s="4">
         <v>44998.29770333333</v>
       </c>
@@ -14473,7 +15106,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A233">
+        <v>232</v>
+      </c>
       <c r="B233" s="4">
         <v>44998.387033101855</v>
       </c>
@@ -14508,7 +15144,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A234">
+        <v>233</v>
+      </c>
       <c r="B234" s="4">
         <v>44998.390105474537</v>
       </c>
@@ -14543,7 +15182,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A235">
+        <v>234</v>
+      </c>
       <c r="B235" s="4">
         <v>44998.426213645835</v>
       </c>
@@ -14578,7 +15220,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A236">
+        <v>235</v>
+      </c>
       <c r="B236" s="4">
         <v>44998.441279328705</v>
       </c>
@@ -14613,7 +15258,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A237">
+        <v>236</v>
+      </c>
       <c r="B237" s="4">
         <v>44998.575249722227</v>
       </c>
@@ -14648,7 +15296,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A238">
+        <v>237</v>
+      </c>
       <c r="B238" s="4">
         <v>44999.425030462968</v>
       </c>
@@ -14683,7 +15334,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A239">
+        <v>238</v>
+      </c>
       <c r="B239" s="4">
         <v>44999.429563981481</v>
       </c>
@@ -14718,7 +15372,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A240">
+        <v>239</v>
+      </c>
       <c r="B240" s="4">
         <v>44999.541693935185</v>
       </c>
@@ -14753,7 +15410,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A241">
+        <v>240</v>
+      </c>
       <c r="B241" s="4">
         <v>44999.580119571758</v>
       </c>
@@ -14788,7 +15448,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A242">
+        <v>241</v>
+      </c>
       <c r="B242" s="4">
         <v>44999.623320439816</v>
       </c>
@@ -14823,7 +15486,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A243">
+        <v>242</v>
+      </c>
       <c r="B243" s="4">
         <v>45000.597467662039</v>
       </c>
@@ -14858,7 +15524,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A244">
+        <v>243</v>
+      </c>
       <c r="B244" s="4">
         <v>45000.705296018517</v>
       </c>
@@ -14893,7 +15562,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A245">
+        <v>244</v>
+      </c>
       <c r="B245" s="4">
         <v>45000.748742511569</v>
       </c>
@@ -14928,7 +15600,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A246">
+        <v>245</v>
+      </c>
       <c r="B246" s="4">
         <v>45000.822730567132</v>
       </c>
@@ -14963,7 +15638,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A247">
+        <v>246</v>
+      </c>
       <c r="B247" s="4">
         <v>45001.468332418983</v>
       </c>
@@ -14998,7 +15676,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A248">
+        <v>247</v>
+      </c>
       <c r="B248" s="4">
         <v>45001.530374062495</v>
       </c>
@@ -15033,7 +15714,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A249">
+        <v>248</v>
+      </c>
       <c r="B249" s="4">
         <v>45001.591296712963</v>
       </c>
@@ -15068,7 +15752,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A250">
+        <v>249</v>
+      </c>
       <c r="B250" s="4">
         <v>45001.650987569446</v>
       </c>
@@ -15103,7 +15790,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A251">
+        <v>250</v>
+      </c>
       <c r="B251" s="4">
         <v>45001.657153495369</v>
       </c>
@@ -15138,7 +15828,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A252">
+        <v>251</v>
+      </c>
       <c r="B252" s="4">
         <v>45003.667874375002</v>
       </c>
@@ -15173,7 +15866,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A253">
+        <v>252</v>
+      </c>
       <c r="B253" s="4">
         <v>45003.669786284721</v>
       </c>
@@ -15208,7 +15904,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A254">
+        <v>253</v>
+      </c>
       <c r="B254" s="4">
         <v>45005.439896585653</v>
       </c>
@@ -15243,7 +15942,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A255">
+        <v>254</v>
+      </c>
       <c r="B255" s="4">
         <v>45005.606625694447</v>
       </c>
@@ -15278,7 +15980,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A256">
+        <v>255</v>
+      </c>
       <c r="B256" s="4">
         <v>45005.640493645835</v>
       </c>
@@ -15313,7 +16018,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A257">
+        <v>256</v>
+      </c>
       <c r="B257" s="4">
         <v>45005.724163090279</v>
       </c>
@@ -15348,7 +16056,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A258">
+        <v>257</v>
+      </c>
       <c r="B258" s="4">
         <v>45005.726705370369</v>
       </c>
@@ -15383,7 +16094,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A259">
+        <v>258</v>
+      </c>
       <c r="B259" s="4">
         <v>45006.410155868056</v>
       </c>
@@ -15418,7 +16132,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A260">
+        <v>259</v>
+      </c>
       <c r="B260" s="4">
         <v>45006.64068084491</v>
       </c>
@@ -15453,7 +16170,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A261">
+        <v>260</v>
+      </c>
       <c r="B261" s="4">
         <v>45006.827241782405</v>
       </c>
@@ -15488,7 +16208,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A262">
+        <v>261</v>
+      </c>
       <c r="B262" s="4">
         <v>45006.874890057872</v>
       </c>
@@ -15523,7 +16246,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A263">
+        <v>262</v>
+      </c>
       <c r="B263" s="4">
         <v>45007.27922729167</v>
       </c>
@@ -15558,7 +16284,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A264">
+        <v>263</v>
+      </c>
       <c r="B264" s="4">
         <v>45007.660264143517</v>
       </c>
@@ -15593,7 +16322,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A265">
+        <v>264</v>
+      </c>
       <c r="B265" s="4">
         <v>45007.663957696757</v>
       </c>
@@ -15628,7 +16360,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A266">
+        <v>265</v>
+      </c>
       <c r="B266" s="4">
         <v>45007.684728032407</v>
       </c>
@@ -15663,7 +16398,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A267">
+        <v>266</v>
+      </c>
       <c r="B267" s="4">
         <v>45007.685926157406</v>
       </c>
@@ -15698,7 +16436,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A268">
+        <v>267</v>
+      </c>
       <c r="B268" s="4">
         <v>45007.739027916672</v>
       </c>
@@ -15733,7 +16474,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A269">
+        <v>268</v>
+      </c>
       <c r="B269" s="4">
         <v>45007.742341319448</v>
       </c>
@@ -15768,7 +16512,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A270">
+        <v>269</v>
+      </c>
       <c r="B270" s="4">
         <v>45007.768772268522</v>
       </c>
@@ -15803,7 +16550,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A271">
+        <v>270</v>
+      </c>
       <c r="B271" s="4">
         <v>45007.770293263893</v>
       </c>
@@ -15838,7 +16588,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A272">
+        <v>271</v>
+      </c>
       <c r="B272" s="4">
         <v>45007.771805208336</v>
       </c>
@@ -15873,7 +16626,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A273">
+        <v>272</v>
+      </c>
       <c r="B273" s="4">
         <v>45008.389105439812</v>
       </c>
@@ -15908,7 +16664,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A274">
+        <v>273</v>
+      </c>
       <c r="B274" s="4">
         <v>45008.443162442127</v>
       </c>
@@ -15943,7 +16702,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A275">
+        <v>274</v>
+      </c>
       <c r="B275" s="4">
         <v>45008.724768576387</v>
       </c>
@@ -15978,7 +16740,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A276">
+        <v>275</v>
+      </c>
       <c r="B276" s="4">
         <v>45008.987109571761</v>
       </c>
@@ -16013,7 +16778,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A277">
+        <v>276</v>
+      </c>
       <c r="B277" s="4">
         <v>45009.44785895833</v>
       </c>
@@ -16048,7 +16816,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A278">
+        <v>277</v>
+      </c>
       <c r="B278" s="4">
         <v>45009.450317731476</v>
       </c>
@@ -16083,7 +16854,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A279">
+        <v>278</v>
+      </c>
       <c r="B279" s="4">
         <v>45009.467295486116</v>
       </c>
@@ -16118,7 +16892,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A280">
+        <v>279</v>
+      </c>
       <c r="B280" s="4">
         <v>45011.555145162041</v>
       </c>
@@ -16153,7 +16930,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A281">
+        <v>280</v>
+      </c>
       <c r="B281" s="4">
         <v>45012.419101874999</v>
       </c>
@@ -16188,7 +16968,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A282">
+        <v>281</v>
+      </c>
       <c r="B282" s="4">
         <v>45013.529114606485</v>
       </c>
@@ -16223,7 +17006,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A283">
+        <v>282</v>
+      </c>
       <c r="B283" s="4">
         <v>45013.712777673616</v>
       </c>
@@ -16258,7 +17044,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A284">
+        <v>283</v>
+      </c>
       <c r="B284" s="4">
         <v>45014.704513888893</v>
       </c>
@@ -16293,7 +17082,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A285">
+        <v>284</v>
+      </c>
       <c r="B285" s="4">
         <v>45014.712264062502</v>
       </c>
@@ -16328,7 +17120,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A286">
+        <v>285</v>
+      </c>
       <c r="B286" s="4">
         <v>45014.759327083331</v>
       </c>
@@ -16363,7 +17158,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A287">
+        <v>286</v>
+      </c>
       <c r="B287" s="4">
         <v>45015.400054247686</v>
       </c>
@@ -16398,7 +17196,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A288">
+        <v>287</v>
+      </c>
       <c r="B288" s="4">
         <v>45015.474325787036</v>
       </c>
@@ -16433,7 +17234,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A289">
+        <v>288</v>
+      </c>
       <c r="B289" s="4">
         <v>45019.272831782408</v>
       </c>
@@ -16468,7 +17272,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A290">
+        <v>289</v>
+      </c>
       <c r="B290" s="4">
         <v>45019.409811365738</v>
       </c>
@@ -16503,7 +17310,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A291">
+        <v>290</v>
+      </c>
       <c r="B291" s="4">
         <v>45019.428743344906</v>
       </c>
@@ -16538,7 +17348,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A292">
+        <v>291</v>
+      </c>
       <c r="B292" s="4">
         <v>45019.431268541666</v>
       </c>
@@ -16573,7 +17386,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A293">
+        <v>292</v>
+      </c>
       <c r="B293" s="4">
         <v>45019.432455752314</v>
       </c>
@@ -16608,7 +17424,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A294">
+        <v>293</v>
+      </c>
       <c r="B294" s="4">
         <v>45019.660002847224</v>
       </c>
@@ -16643,7 +17462,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A295">
+        <v>294</v>
+      </c>
       <c r="B295" s="4">
         <v>45020.669757280091</v>
       </c>
@@ -16678,7 +17500,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A296">
+        <v>295</v>
+      </c>
       <c r="B296" s="4">
         <v>45020.681746562499</v>
       </c>
@@ -16713,7 +17538,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A297">
+        <v>296</v>
+      </c>
       <c r="B297" s="4">
         <v>45020.731336365745</v>
       </c>
@@ -16748,7 +17576,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A298">
+        <v>297</v>
+      </c>
       <c r="B298" s="4">
         <v>45020.916067731479</v>
       </c>
@@ -16783,7 +17614,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A299">
+        <v>298</v>
+      </c>
       <c r="B299" s="4">
         <v>45021.692178136575</v>
       </c>
@@ -16818,7 +17652,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A300">
+        <v>299</v>
+      </c>
       <c r="B300" s="4">
         <v>45022.684271041668</v>
       </c>
@@ -16853,7 +17690,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A301">
+        <v>300</v>
+      </c>
       <c r="B301" s="4">
         <v>45025.850246562499</v>
       </c>
@@ -16888,7 +17728,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A302">
+        <v>301</v>
+      </c>
       <c r="B302" s="4">
         <v>45026.476401145832</v>
       </c>
@@ -16923,7 +17766,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A303">
+        <v>302</v>
+      </c>
       <c r="B303" s="4">
         <v>45026.479610254624</v>
       </c>
@@ -16958,7 +17804,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A304">
+        <v>303</v>
+      </c>
       <c r="B304" s="4">
         <v>45026.534969236112</v>
       </c>
@@ -16993,7 +17842,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A305">
+        <v>304</v>
+      </c>
       <c r="B305" s="4">
         <v>45026.558659224538</v>
       </c>
@@ -17028,7 +17880,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A306">
+        <v>305</v>
+      </c>
       <c r="B306" s="4">
         <v>45026.631834872685</v>
       </c>
@@ -17063,7 +17918,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A307">
+        <v>306</v>
+      </c>
       <c r="B307" s="4">
         <v>45026.824789594903</v>
       </c>
@@ -17098,7 +17956,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A308">
+        <v>307</v>
+      </c>
       <c r="B308" s="4">
         <v>45027.416357719907</v>
       </c>
@@ -17133,7 +17994,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A309">
+        <v>308</v>
+      </c>
       <c r="B309" s="4">
         <v>45027.635998981481</v>
       </c>
@@ -17168,7 +18032,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A310">
+        <v>309</v>
+      </c>
       <c r="B310" s="4">
         <v>45027.657182777781</v>
       </c>
@@ -17203,7 +18070,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A311">
+        <v>310</v>
+      </c>
       <c r="B311" s="4">
         <v>45027.676508715274</v>
       </c>
@@ -17238,7 +18108,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A312">
+        <v>311</v>
+      </c>
       <c r="B312" s="4">
         <v>45027.749316203699</v>
       </c>
@@ -17273,7 +18146,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A313">
+        <v>312</v>
+      </c>
       <c r="B313" s="4">
         <v>45027.78362858796</v>
       </c>
@@ -17308,7 +18184,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A314">
+        <v>313</v>
+      </c>
       <c r="B314" s="4">
         <v>45028.632799953702</v>
       </c>
@@ -17343,7 +18222,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A315">
+        <v>314</v>
+      </c>
       <c r="B315" s="4">
         <v>45028.663940983795</v>
       </c>
@@ -17378,7 +18260,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A316">
+        <v>315</v>
+      </c>
       <c r="B316" s="4">
         <v>45028.825083449075</v>
       </c>
@@ -17413,7 +18298,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A317">
+        <v>316</v>
+      </c>
       <c r="B317" s="4">
         <v>45029.464029467592</v>
       </c>
@@ -17448,7 +18336,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A318">
+        <v>317</v>
+      </c>
       <c r="B318" s="4">
         <v>45029.5530128588</v>
       </c>
@@ -17483,7 +18374,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A319">
+        <v>318</v>
+      </c>
       <c r="B319" s="4">
         <v>45029.651998518515</v>
       </c>
@@ -17518,7 +18412,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A320">
+        <v>319</v>
+      </c>
       <c r="B320" s="4">
         <v>45034.416763854169</v>
       </c>
@@ -17553,7 +18450,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A321">
+        <v>320</v>
+      </c>
       <c r="B321" s="4">
         <v>45034.424570173607</v>
       </c>
@@ -17588,7 +18488,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A322">
+        <v>321</v>
+      </c>
       <c r="B322" s="4">
         <v>45034.425717152779</v>
       </c>
@@ -17623,7 +18526,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A323">
+        <v>322</v>
+      </c>
       <c r="B323" s="4">
         <v>45034.439901458332</v>
       </c>
@@ -17658,7 +18564,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A324">
+        <v>323</v>
+      </c>
       <c r="B324" s="4">
         <v>45034.465329953702</v>
       </c>
@@ -17693,7 +18602,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A325">
+        <v>324</v>
+      </c>
       <c r="B325" s="4">
         <v>45034.644372800925</v>
       </c>
@@ -17728,7 +18640,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A326">
+        <v>325</v>
+      </c>
       <c r="B326" s="4">
         <v>45035.511269386574</v>
       </c>
@@ -17763,7 +18678,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A327">
+        <v>326</v>
+      </c>
       <c r="B327" s="4">
         <v>45035.900707939814</v>
       </c>
@@ -17798,7 +18716,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A328">
+        <v>327</v>
+      </c>
       <c r="B328" s="4">
         <v>45036.424347418986</v>
       </c>
@@ -17833,7 +18754,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A329">
+        <v>328</v>
+      </c>
       <c r="B329" s="4">
         <v>45036.47069342593</v>
       </c>
@@ -17868,7 +18792,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A330">
+        <v>329</v>
+      </c>
       <c r="B330" s="4">
         <v>45036.674171805556</v>
       </c>
@@ -17903,7 +18830,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A331">
+        <v>330</v>
+      </c>
       <c r="B331" s="4">
         <v>45038.537813981486</v>
       </c>
@@ -17938,7 +18868,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A332">
+        <v>331</v>
+      </c>
       <c r="B332" s="4">
         <v>45038.7795925463</v>
       </c>
@@ -17973,7 +18906,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A333">
+        <v>332</v>
+      </c>
       <c r="B333" s="4">
         <v>45039.459379780092</v>
       </c>
@@ -18008,7 +18944,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A334">
+        <v>333</v>
+      </c>
       <c r="B334" s="4">
         <v>45039.479111967594</v>
       </c>
@@ -18043,7 +18982,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A335">
+        <v>334</v>
+      </c>
       <c r="B335" s="4">
         <v>45039.490311574074</v>
       </c>
@@ -18078,7 +19020,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A336">
+        <v>335</v>
+      </c>
       <c r="B336" s="4">
         <v>45039.492754791667</v>
       </c>
@@ -18113,7 +19058,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A337">
+        <v>336</v>
+      </c>
       <c r="B337" s="4">
         <v>45039.628767592592</v>
       </c>
@@ -18148,7 +19096,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A338">
+        <v>337</v>
+      </c>
       <c r="B338" s="4">
         <v>45040.38231912037</v>
       </c>
@@ -18183,7 +19134,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A339">
+        <v>338</v>
+      </c>
       <c r="B339" s="4">
         <v>45040.507797199076</v>
       </c>
@@ -18218,7 +19172,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A340">
+        <v>339</v>
+      </c>
       <c r="B340" s="4">
         <v>45040.595837905094</v>
       </c>
@@ -18253,7 +19210,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A341">
+        <v>340</v>
+      </c>
       <c r="B341" s="4">
         <v>45040.636783078706</v>
       </c>
@@ -18288,7 +19248,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A342">
+        <v>341</v>
+      </c>
       <c r="B342" s="4">
         <v>45040.926985636572</v>
       </c>
@@ -18323,7 +19286,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A343">
+        <v>342</v>
+      </c>
       <c r="B343" s="4">
         <v>45041.463009502317</v>
       </c>
@@ -18358,7 +19324,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A344">
+        <v>343</v>
+      </c>
       <c r="B344" s="4">
         <v>45041.560330972221</v>
       </c>
@@ -18393,7 +19362,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A345">
+        <v>344</v>
+      </c>
       <c r="B345" s="4">
         <v>45041.672296192133</v>
       </c>
@@ -18428,7 +19400,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A346">
+        <v>345</v>
+      </c>
       <c r="B346" s="4">
         <v>45042.408690960649</v>
       </c>
@@ -18463,7 +19438,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A347">
+        <v>346</v>
+      </c>
       <c r="B347" s="4">
         <v>45042.901354224537</v>
       </c>
@@ -18498,7 +19476,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A348">
+        <v>347</v>
+      </c>
       <c r="B348" s="4">
         <v>45043.412167152783</v>
       </c>
@@ -18533,7 +19514,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A349">
+        <v>348</v>
+      </c>
       <c r="B349" s="4">
         <v>45043.490943807876</v>
       </c>
@@ -18568,7 +19552,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A350">
+        <v>349</v>
+      </c>
       <c r="B350" s="4">
         <v>45043.62037665509</v>
       </c>
@@ -18603,7 +19590,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A351">
+        <v>350</v>
+      </c>
       <c r="B351" s="4">
         <v>45044.381647430557</v>
       </c>
@@ -18638,7 +19628,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A352">
+        <v>351</v>
+      </c>
       <c r="B352" s="4">
         <v>45044.531137465281</v>
       </c>
@@ -18673,7 +19666,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A353">
+        <v>352</v>
+      </c>
       <c r="B353" s="4">
         <v>45044.604089710643</v>
       </c>
@@ -18708,7 +19704,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A354">
+        <v>353</v>
+      </c>
       <c r="B354" s="4">
         <v>45044.671009351849</v>
       </c>
@@ -18743,7 +19742,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A355">
+        <v>354</v>
+      </c>
       <c r="B355" s="4">
         <v>45044.674267395836</v>
       </c>
@@ -18778,7 +19780,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A356">
+        <v>355</v>
+      </c>
       <c r="B356" s="4">
         <v>45044.700080520837</v>
       </c>
@@ -18813,7 +19818,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A357">
+        <v>356</v>
+      </c>
       <c r="B357" s="4">
         <v>45046.939814201389</v>
       </c>
@@ -18848,7 +19856,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A358">
+        <v>357</v>
+      </c>
       <c r="B358" s="4">
         <v>45048.36515140046</v>
       </c>
@@ -18883,7 +19894,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A359">
+        <v>358</v>
+      </c>
       <c r="B359" s="4">
         <v>45048.456693483793</v>
       </c>
@@ -18918,7 +19932,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A360">
+        <v>359</v>
+      </c>
       <c r="B360" s="4">
         <v>45048.94902054398</v>
       </c>
@@ -18953,7 +19970,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A361">
+        <v>360</v>
+      </c>
       <c r="B361" s="4">
         <v>45049.382380960647</v>
       </c>
@@ -18988,7 +20008,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A362">
+        <v>361</v>
+      </c>
       <c r="B362" s="4">
         <v>45049.486863692131</v>
       </c>
@@ -19023,7 +20046,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A363">
+        <v>362</v>
+      </c>
       <c r="B363" s="4">
         <v>45049.492854502314</v>
       </c>
@@ -19058,7 +20084,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A364">
+        <v>363</v>
+      </c>
       <c r="B364" s="4">
         <v>45049.630543784719</v>
       </c>
@@ -19093,7 +20122,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A365">
+        <v>364</v>
+      </c>
       <c r="B365" s="4">
         <v>45049.688739178237</v>
       </c>
@@ -19128,7 +20160,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A366">
+        <v>365</v>
+      </c>
       <c r="B366" s="4">
         <v>45049.763295520832</v>
       </c>
@@ -19163,7 +20198,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A367">
+        <v>366</v>
+      </c>
       <c r="B367" s="4">
         <v>45050.383138368052</v>
       </c>
@@ -19198,7 +20236,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A368">
+        <v>367</v>
+      </c>
       <c r="B368" s="4">
         <v>45050.447676921292</v>
       </c>
@@ -19233,7 +20274,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A369">
+        <v>368</v>
+      </c>
       <c r="B369" s="4">
         <v>45052.460031967596</v>
       </c>
@@ -19268,7 +20312,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A370">
+        <v>369</v>
+      </c>
       <c r="B370" s="4">
         <v>45052.474808101848</v>
       </c>
@@ -19303,7 +20350,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A371">
+        <v>370</v>
+      </c>
       <c r="B371" s="4">
         <v>45053.362674895834</v>
       </c>
@@ -19338,7 +20388,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A372">
+        <v>371</v>
+      </c>
       <c r="B372" s="4">
         <v>45053.88327953704</v>
       </c>
@@ -19373,7 +20426,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A373">
+        <v>372</v>
+      </c>
       <c r="B373" s="4">
         <v>45054.333595243057</v>
       </c>
@@ -19408,7 +20464,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A374">
+        <v>373</v>
+      </c>
       <c r="B374" s="4">
         <v>45054.335953518515</v>
       </c>
@@ -19443,7 +20502,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A375">
+        <v>374</v>
+      </c>
       <c r="B375" s="4">
         <v>45054.542994166666</v>
       </c>
@@ -19478,7 +20540,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A376">
+        <v>375</v>
+      </c>
       <c r="B376" s="4">
         <v>45054.656732858799</v>
       </c>
@@ -19513,7 +20578,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A377">
+        <v>376</v>
+      </c>
       <c r="B377" s="4">
         <v>45054.971227604168</v>
       </c>
@@ -19548,7 +20616,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A378">
+        <v>377</v>
+      </c>
       <c r="B378" s="4">
         <v>45054.986177083338</v>
       </c>
@@ -19583,7 +20654,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A379">
+        <v>378</v>
+      </c>
       <c r="B379" s="4">
         <v>45055.37919550926</v>
       </c>
@@ -19618,7 +20692,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A380">
+        <v>379</v>
+      </c>
       <c r="B380" s="4">
         <v>45055.435740185188</v>
       </c>
@@ -19653,7 +20730,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A381">
+        <v>380</v>
+      </c>
       <c r="B381" s="4">
         <v>45055.444095543979</v>
       </c>
@@ -19688,7 +20768,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A382">
+        <v>381</v>
+      </c>
       <c r="B382" s="4">
         <v>45055.50664900463</v>
       </c>
@@ -19723,7 +20806,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A383">
+        <v>382</v>
+      </c>
       <c r="B383" s="4">
         <v>45055.50716789352</v>
       </c>
@@ -19758,7 +20844,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A384">
+        <v>383</v>
+      </c>
       <c r="B384" s="4">
         <v>45055.515480486109</v>
       </c>
@@ -19793,7 +20882,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A385">
+        <v>384</v>
+      </c>
       <c r="B385" s="4">
         <v>45055.660436180551</v>
       </c>
@@ -19828,7 +20920,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A386">
+        <v>385</v>
+      </c>
       <c r="B386" s="4">
         <v>45055.864611099532</v>
       </c>
@@ -19863,7 +20958,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A387">
+        <v>386</v>
+      </c>
       <c r="B387" s="4">
         <v>45056.370367430558</v>
       </c>
@@ -19898,7 +20996,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A388">
+        <v>387</v>
+      </c>
       <c r="B388" s="4">
         <v>45056.432062129628</v>
       </c>
@@ -19933,7 +21034,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A389">
+        <v>388</v>
+      </c>
       <c r="B389" s="4">
         <v>45056.480444791669</v>
       </c>
@@ -19968,7 +21072,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A390">
+        <v>389</v>
+      </c>
       <c r="B390" s="4">
         <v>45056.708238101855</v>
       </c>
@@ -20003,7 +21110,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A391">
+        <v>390</v>
+      </c>
       <c r="B391" s="4">
         <v>45057.658772777781</v>
       </c>
@@ -20038,7 +21148,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A392">
+        <v>391</v>
+      </c>
       <c r="B392" s="4">
         <v>45057.666595300921</v>
       </c>
@@ -20073,7 +21186,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A393">
+        <v>392</v>
+      </c>
       <c r="B393" s="4">
         <v>45057.696606076388</v>
       </c>
@@ -20108,7 +21224,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A394">
+        <v>393</v>
+      </c>
       <c r="B394" s="4">
         <v>45057.699471388885</v>
       </c>
@@ -20143,7 +21262,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A395">
+        <v>394</v>
+      </c>
       <c r="B395" s="4">
         <v>45057.846739618057</v>
       </c>
@@ -20178,7 +21300,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A396">
+        <v>395</v>
+      </c>
       <c r="B396" s="4">
         <v>45057.938407905094</v>
       </c>
@@ -20213,7 +21338,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A397">
+        <v>396</v>
+      </c>
       <c r="B397" s="4">
         <v>45058.393976979161</v>
       </c>
@@ -20248,7 +21376,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A398">
+        <v>397</v>
+      </c>
       <c r="B398" s="4">
         <v>45058.405234247686</v>
       </c>
@@ -20283,7 +21414,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A399">
+        <v>398</v>
+      </c>
       <c r="B399" s="4">
         <v>45058.40781611111</v>
       </c>
@@ -20318,7 +21452,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A400">
+        <v>399</v>
+      </c>
       <c r="B400" s="4">
         <v>45058.653236631944</v>
       </c>
@@ -20353,7 +21490,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A401">
+        <v>400</v>
+      </c>
       <c r="B401" s="4">
         <v>45058.787007534724</v>
       </c>
@@ -20388,7 +21528,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A402">
+        <v>401</v>
+      </c>
       <c r="B402" s="4">
         <v>45059.472220659722</v>
       </c>
@@ -20423,7 +21566,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A403">
+        <v>402</v>
+      </c>
       <c r="B403" s="4">
         <v>45060.555917280093</v>
       </c>
@@ -20458,7 +21604,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A404">
+        <v>403</v>
+      </c>
       <c r="B404" s="4">
         <v>45061.3639381713</v>
       </c>
@@ -20493,7 +21642,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A405">
+        <v>404</v>
+      </c>
       <c r="B405" s="4">
         <v>45061.638112858796</v>
       </c>
@@ -20528,7 +21680,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A406">
+        <v>405</v>
+      </c>
       <c r="B406" s="4">
         <v>45061.736707488424</v>
       </c>
@@ -20563,7 +21718,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A407">
+        <v>406</v>
+      </c>
       <c r="B407" s="4">
         <v>45061.741122071762</v>
       </c>
@@ -20598,7 +21756,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A408">
+        <v>407</v>
+      </c>
       <c r="B408" s="4">
         <v>45061.77768861111</v>
       </c>
@@ -20633,7 +21794,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A409">
+        <v>408</v>
+      </c>
       <c r="B409" s="4">
         <v>45061.778735092594</v>
       </c>
@@ -20668,7 +21832,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A410">
+        <v>409</v>
+      </c>
       <c r="B410" s="4">
         <v>45062.256371215277</v>
       </c>
@@ -20703,7 +21870,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A411">
+        <v>410</v>
+      </c>
       <c r="B411" s="4">
         <v>45062.553546446754</v>
       </c>
@@ -20738,7 +21908,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A412">
+        <v>411</v>
+      </c>
       <c r="B412" s="4">
         <v>45062.630693043982</v>
       </c>
@@ -20773,7 +21946,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A413">
+        <v>412</v>
+      </c>
       <c r="B413" s="4">
         <v>45062.73996496528</v>
       </c>
@@ -20808,7 +21984,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A414">
+        <v>413</v>
+      </c>
       <c r="B414" s="4">
         <v>45062.758362592591</v>
       </c>
@@ -20843,7 +22022,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A415">
+        <v>414</v>
+      </c>
       <c r="B415" s="4">
         <v>45063.345276689812</v>
       </c>
@@ -20878,7 +22060,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A416">
+        <v>415</v>
+      </c>
       <c r="B416" s="4">
         <v>45063.468110300921</v>
       </c>
@@ -20913,7 +22098,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A417">
+        <v>416</v>
+      </c>
       <c r="B417" s="4">
         <v>45063.486657719906</v>
       </c>
@@ -20948,7 +22136,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A418">
+        <v>417</v>
+      </c>
       <c r="B418" s="4">
         <v>45063.604491828708</v>
       </c>
@@ -20983,7 +22174,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A419">
+        <v>418</v>
+      </c>
       <c r="B419" s="4">
         <v>45063.655429560182</v>
       </c>
@@ -21018,7 +22212,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A420">
+        <v>419</v>
+      </c>
       <c r="B420" s="4">
         <v>45063.658658773144</v>
       </c>
@@ -21053,7 +22250,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A421">
+        <v>420</v>
+      </c>
       <c r="B421" s="4">
         <v>45063.659742025462</v>
       </c>
@@ -21088,7 +22288,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A422">
+        <v>421</v>
+      </c>
       <c r="B422" s="4">
         <v>45063.715375659725</v>
       </c>
@@ -21123,7 +22326,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A423">
+        <v>422</v>
+      </c>
       <c r="B423" s="4">
         <v>45063.963778055557</v>
       </c>
@@ -21158,7 +22364,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A424">
+        <v>423</v>
+      </c>
       <c r="B424" s="4">
         <v>45064.539536828699</v>
       </c>
@@ -21193,7 +22402,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A425">
+        <v>424</v>
+      </c>
       <c r="B425" s="4">
         <v>45064.657677951385</v>
       </c>
@@ -21228,7 +22440,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A426">
+        <v>425</v>
+      </c>
       <c r="B426" s="4">
         <v>45064.725374652779</v>
       </c>
@@ -21263,7 +22478,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A427">
+        <v>426</v>
+      </c>
       <c r="B427" s="4">
         <v>45064.875035358797</v>
       </c>
@@ -21298,7 +22516,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A428">
+        <v>427</v>
+      </c>
       <c r="B428" s="4">
         <v>45065.708519837965</v>
       </c>
@@ -21333,7 +22554,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A429">
+        <v>428</v>
+      </c>
       <c r="B429" s="4">
         <v>45065.709649560187</v>
       </c>
@@ -21368,7 +22592,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A430">
+        <v>429</v>
+      </c>
       <c r="B430" s="4">
         <v>45066.433022025463</v>
       </c>
@@ -21403,7 +22630,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A431">
+        <v>430</v>
+      </c>
       <c r="B431" s="4">
         <v>45067.509200532411</v>
       </c>
@@ -21438,7 +22668,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A432">
+        <v>431</v>
+      </c>
       <c r="B432" s="4">
         <v>45068.46163690972</v>
       </c>
@@ -21473,7 +22706,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A433">
+        <v>432</v>
+      </c>
       <c r="B433" s="4">
         <v>45068.57888335648</v>
       </c>
@@ -21508,7 +22744,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A434">
+        <v>433</v>
+      </c>
       <c r="B434" s="4">
         <v>45068.580259085647</v>
       </c>
@@ -21543,7 +22782,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A435">
+        <v>434</v>
+      </c>
       <c r="B435" s="4">
         <v>45068.698249305555</v>
       </c>
@@ -21578,7 +22820,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A436">
+        <v>435</v>
+      </c>
       <c r="B436" s="4">
         <v>45069.373609895832</v>
       </c>
@@ -21613,7 +22858,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A437">
+        <v>436</v>
+      </c>
       <c r="B437" s="4">
         <v>45070.669193912036</v>
       </c>
@@ -21648,7 +22896,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A438">
+        <v>437</v>
+      </c>
       <c r="B438" s="4">
         <v>45070.891743333334</v>
       </c>
@@ -21683,7 +22934,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A439">
+        <v>438</v>
+      </c>
       <c r="B439" s="4">
         <v>45070.893121562505</v>
       </c>
@@ -21718,7 +22972,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A440">
+        <v>439</v>
+      </c>
       <c r="B440" s="4">
         <v>45071.414914340276</v>
       </c>
@@ -21753,7 +23010,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A441">
+        <v>440</v>
+      </c>
       <c r="B441" s="4">
         <v>45071.897009837965</v>
       </c>
@@ -21788,7 +23048,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A442">
+        <v>441</v>
+      </c>
       <c r="B442" s="4">
         <v>45072.464858217594</v>
       </c>
@@ -21823,7 +23086,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A443">
+        <v>442</v>
+      </c>
       <c r="B443" s="4">
         <v>45072.804873483794</v>
       </c>
@@ -21858,7 +23124,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A444">
+        <v>443</v>
+      </c>
       <c r="B444" s="4">
         <v>45072.878716307867</v>
       </c>
@@ -21893,7 +23162,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A445">
+        <v>444</v>
+      </c>
       <c r="B445" s="4">
         <v>45073.776965509256</v>
       </c>
@@ -21928,7 +23200,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A446">
+        <v>445</v>
+      </c>
       <c r="B446" s="4">
         <v>45074.749224537038</v>
       </c>
@@ -21963,7 +23238,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A447">
+        <v>446</v>
+      </c>
       <c r="B447" s="4">
         <v>45075.581160717593</v>
       </c>
@@ -21998,7 +23276,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A448">
+        <v>447</v>
+      </c>
       <c r="B448" s="4">
         <v>45075.62724454861</v>
       </c>
@@ -22033,7 +23314,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A449">
+        <v>448</v>
+      </c>
       <c r="B449" s="4">
         <v>45075.702835011572</v>
       </c>
@@ -22068,7 +23352,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A450">
+        <v>449</v>
+      </c>
       <c r="B450" s="4">
         <v>45076.486003391205</v>
       </c>
@@ -22103,7 +23390,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A451">
+        <v>450</v>
+      </c>
       <c r="B451" s="4">
         <v>45076.558457719904</v>
       </c>
@@ -22138,7 +23428,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A452">
+        <v>451</v>
+      </c>
       <c r="B452" s="4">
         <v>45076.703801284719</v>
       </c>
@@ -22173,7 +23466,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A453">
+        <v>452</v>
+      </c>
       <c r="B453" s="4">
         <v>45076.714681967591</v>
       </c>
@@ -22208,7 +23504,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A454">
+        <v>453</v>
+      </c>
       <c r="B454" s="4">
         <v>45076.757901284727</v>
       </c>
@@ -22243,7 +23542,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A455">
+        <v>454</v>
+      </c>
       <c r="B455" s="4">
         <v>45077.374540763893</v>
       </c>
@@ -22278,7 +23580,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A456">
+        <v>455</v>
+      </c>
       <c r="B456" s="4">
         <v>45077.390446168982</v>
       </c>
@@ -22313,7 +23618,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A457">
+        <v>456</v>
+      </c>
       <c r="B457" s="4">
         <v>45077.434910856478</v>
       </c>
@@ -22348,7 +23656,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A458">
+        <v>457</v>
+      </c>
       <c r="B458" s="4">
         <v>45077.449393587958</v>
       </c>
@@ -22383,7 +23694,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A459">
+        <v>458</v>
+      </c>
       <c r="B459" s="4">
         <v>45077.456613344912</v>
       </c>
@@ -22418,7 +23732,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A460">
+        <v>459</v>
+      </c>
       <c r="B460" s="4">
         <v>45077.470496458336</v>
       </c>
@@ -22453,7 +23770,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A461">
+        <v>460</v>
+      </c>
       <c r="B461" s="4">
         <v>45077.475489918987</v>
       </c>
@@ -22488,7 +23808,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A462">
+        <v>461</v>
+      </c>
       <c r="B462" s="4">
         <v>45077.477364907405</v>
       </c>
@@ -22523,7 +23846,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A463">
+        <v>462</v>
+      </c>
       <c r="B463" s="4">
         <v>45077.538020115739</v>
       </c>
@@ -22558,7 +23884,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A464">
+        <v>463</v>
+      </c>
       <c r="B464" s="4">
         <v>45077.648403472223</v>
       </c>
@@ -22593,7 +23922,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A465">
+        <v>464</v>
+      </c>
       <c r="B465" s="4">
         <v>45077.653106099533</v>
       </c>
@@ -22628,7 +23960,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A466">
+        <v>465</v>
+      </c>
       <c r="B466" s="4">
         <v>45078.376619432871</v>
       </c>
@@ -22663,7 +23998,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A467">
+        <v>466</v>
+      </c>
       <c r="B467" s="4">
         <v>45078.408902777781</v>
       </c>
@@ -22698,7 +24036,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A468">
+        <v>467</v>
+      </c>
       <c r="B468" s="4">
         <v>45078.414810497685</v>
       </c>
@@ -22733,7 +24074,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A469">
+        <v>468</v>
+      </c>
       <c r="B469" s="4">
         <v>45078.421412743061</v>
       </c>
@@ -22768,7 +24112,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A470">
+        <v>469</v>
+      </c>
       <c r="B470" s="4">
         <v>45078.437549629627</v>
       </c>
@@ -22803,7 +24150,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A471">
+        <v>470</v>
+      </c>
       <c r="B471" s="4">
         <v>45078.749044189812</v>
       </c>
@@ -22838,7 +24188,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A472">
+        <v>471</v>
+      </c>
       <c r="B472" s="4">
         <v>45078.771339224535</v>
       </c>
@@ -22873,7 +24226,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A473">
+        <v>472</v>
+      </c>
       <c r="B473" s="4">
         <v>45079.441804189817</v>
       </c>
@@ -22908,7 +24264,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A474">
+        <v>473</v>
+      </c>
       <c r="B474" s="4">
         <v>45079.468003240741</v>
       </c>
@@ -22943,7 +24302,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A475">
+        <v>474</v>
+      </c>
       <c r="B475" s="4">
         <v>45081.854744583332</v>
       </c>
@@ -22978,7 +24340,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A476">
+        <v>475</v>
+      </c>
       <c r="B476" s="4">
         <v>45081.857869687505</v>
       </c>
@@ -23013,7 +24378,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A477">
+        <v>476</v>
+      </c>
       <c r="B477" s="4">
         <v>45082.37960148148</v>
       </c>
@@ -23048,7 +24416,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A478">
+        <v>477</v>
+      </c>
       <c r="B478" s="4">
         <v>45082.558065578705</v>
       </c>
@@ -23083,7 +24454,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A479">
+        <v>478</v>
+      </c>
       <c r="B479" s="4">
         <v>45082.63267107639</v>
       </c>
@@ -23118,7 +24492,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A480">
+        <v>479</v>
+      </c>
       <c r="B480" s="4">
         <v>45082.658273819441</v>
       </c>
@@ -23153,7 +24530,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A481">
+        <v>480</v>
+      </c>
       <c r="B481" s="4">
         <v>45082.764653587961</v>
       </c>
@@ -23188,7 +24568,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A482">
+        <v>481</v>
+      </c>
       <c r="B482" s="4">
         <v>45082.783488981484</v>
       </c>
@@ -23223,7 +24606,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A483">
+        <v>482</v>
+      </c>
       <c r="B483" s="4">
         <v>45082.819587152779</v>
       </c>
@@ -23258,7 +24644,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A484">
+        <v>483</v>
+      </c>
       <c r="B484" s="4">
         <v>45082.832951249999</v>
       </c>
@@ -23293,7 +24682,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A485">
+        <v>484</v>
+      </c>
       <c r="B485" s="4">
         <v>45083.626700312496</v>
       </c>
@@ -23328,7 +24720,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A486">
+        <v>485</v>
+      </c>
       <c r="B486" s="4">
         <v>45083.629867303243</v>
       </c>
@@ -23363,7 +24758,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A487">
+        <v>486</v>
+      </c>
       <c r="B487" s="4">
         <v>45083.759826145833</v>
       </c>
@@ -23398,7 +24796,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A488">
+        <v>487</v>
+      </c>
       <c r="B488" s="4">
         <v>45084.63536753472</v>
       </c>
@@ -23433,7 +24834,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A489">
+        <v>488</v>
+      </c>
       <c r="B489" s="4">
         <v>45084.776418159723</v>
       </c>
@@ -23468,7 +24872,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A490">
+        <v>489</v>
+      </c>
       <c r="B490" s="4">
         <v>45084.819044409727</v>
       </c>
@@ -23503,7 +24910,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A491">
+        <v>490</v>
+      </c>
       <c r="B491" s="4">
         <v>45084.847368020834</v>
       </c>
@@ -23538,7 +24948,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A492">
+        <v>491</v>
+      </c>
       <c r="B492" s="4">
         <v>45086.566960069445</v>
       </c>
@@ -23573,7 +24986,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A493">
+        <v>492</v>
+      </c>
       <c r="B493" s="4">
         <v>45086.569199791666</v>
       </c>
@@ -23608,7 +25024,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A494">
+        <v>493</v>
+      </c>
       <c r="B494" s="4">
         <v>45086.67040195602</v>
       </c>
@@ -23643,7 +25062,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A495">
+        <v>494</v>
+      </c>
       <c r="B495" s="4">
         <v>45086.697690648143</v>
       </c>
@@ -23678,7 +25100,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A496">
+        <v>495</v>
+      </c>
       <c r="B496" s="4">
         <v>45086.698742048611</v>
       </c>
@@ -23713,7 +25138,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A497">
+        <v>496</v>
+      </c>
       <c r="B497" s="4">
         <v>45086.700771134259</v>
       </c>
@@ -23748,7 +25176,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A498">
+        <v>497</v>
+      </c>
       <c r="B498" s="4">
         <v>45087.33899340278</v>
       </c>
@@ -23783,7 +25214,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A499">
+        <v>498</v>
+      </c>
       <c r="B499" s="4">
         <v>45087.36587011574</v>
       </c>
@@ -23818,7 +25252,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A500">
+        <v>499</v>
+      </c>
       <c r="B500" s="4">
         <v>45087.398338333333</v>
       </c>
@@ -23853,7 +25290,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A501">
+        <v>500</v>
+      </c>
       <c r="B501" s="4">
         <v>45087.404697430553</v>
       </c>
@@ -23888,7 +25328,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A502">
+        <v>501</v>
+      </c>
       <c r="B502" s="4">
         <v>45087.442846724538</v>
       </c>
@@ -23923,7 +25366,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A503">
+        <v>502</v>
+      </c>
       <c r="B503" s="4">
         <v>45089.35388623843</v>
       </c>
@@ -23958,7 +25404,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A504">
+        <v>503</v>
+      </c>
       <c r="B504" s="4">
         <v>45089.368540706018</v>
       </c>
@@ -23993,7 +25442,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A505">
+        <v>504</v>
+      </c>
       <c r="B505" s="4">
         <v>45089.744279953702</v>
       </c>
@@ -24028,7 +25480,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A506">
+        <v>505</v>
+      </c>
       <c r="B506" s="4">
         <v>45089.746642858794</v>
       </c>
@@ -24063,7 +25518,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A507">
+        <v>506</v>
+      </c>
       <c r="B507" s="4">
         <v>45090.435038229167</v>
       </c>
@@ -24098,7 +25556,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A508">
+        <v>507</v>
+      </c>
       <c r="B508" s="4">
         <v>45090.723435219908</v>
       </c>
@@ -24133,7 +25594,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A509">
+        <v>508</v>
+      </c>
       <c r="B509" s="4">
         <v>45090.748283923611</v>
       </c>
@@ -24168,7 +25632,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A510">
+        <v>509</v>
+      </c>
       <c r="B510" s="4">
         <v>45091.476652048616</v>
       </c>
@@ -24203,7 +25670,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A511">
+        <v>510</v>
+      </c>
       <c r="B511" s="4">
         <v>45091.478077916661</v>
       </c>
@@ -24238,7 +25708,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A512">
+        <v>511</v>
+      </c>
       <c r="B512" s="4">
         <v>45091.987374756944</v>
       </c>
@@ -24273,7 +25746,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A513">
+        <v>512</v>
+      </c>
       <c r="B513" s="4">
         <v>45092.647299085649</v>
       </c>
@@ -24308,7 +25784,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A514">
+        <v>513</v>
+      </c>
       <c r="B514" s="4">
         <v>45093.471944317134</v>
       </c>
@@ -24343,7 +25822,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A515">
+        <v>514</v>
+      </c>
       <c r="B515" s="4">
         <v>45094.446475312499</v>
       </c>
@@ -24378,7 +25860,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A516">
+        <v>515</v>
+      </c>
       <c r="B516" s="4">
         <v>45094.464955370371</v>
       </c>
@@ -24413,7 +25898,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A517">
+        <v>516</v>
+      </c>
       <c r="B517" s="4">
         <v>45094.522413310187</v>
       </c>
@@ -24448,7 +25936,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A518">
+        <v>517</v>
+      </c>
       <c r="B518" s="4">
         <v>45095.814937106479</v>
       </c>
@@ -24483,7 +25974,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A519">
+        <v>518</v>
+      </c>
       <c r="B519" s="4">
         <v>45096.410619201386</v>
       </c>
@@ -24518,7 +26012,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A520">
+        <v>519</v>
+      </c>
       <c r="B520" s="4">
         <v>45096.412105949072</v>
       </c>
@@ -24553,7 +26050,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A521">
+        <v>520</v>
+      </c>
       <c r="B521" s="4">
         <v>45096.412144664355</v>
       </c>
@@ -24588,7 +26088,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A522">
+        <v>521</v>
+      </c>
       <c r="B522" s="4">
         <v>45096.421385173613</v>
       </c>
@@ -24623,7 +26126,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A523">
+        <v>522</v>
+      </c>
       <c r="B523" s="4">
         <v>45096.565774120369</v>
       </c>
@@ -24658,7 +26164,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A524">
+        <v>523</v>
+      </c>
       <c r="B524" s="4">
         <v>45096.663603634261</v>
       </c>
@@ -24693,7 +26202,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A525">
+        <v>524</v>
+      </c>
       <c r="B525" s="4">
         <v>45097.435308437503</v>
       </c>
@@ -24728,7 +26240,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A526">
+        <v>525</v>
+      </c>
       <c r="B526" s="4">
         <v>45098.576203402779</v>
       </c>
@@ -24763,7 +26278,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A527">
+        <v>526</v>
+      </c>
       <c r="B527" s="4">
         <v>45098.701422303246</v>
       </c>
@@ -24798,7 +26316,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A528">
+        <v>527</v>
+      </c>
       <c r="B528" s="4">
         <v>45098.706488622687</v>
       </c>
@@ -24833,7 +26354,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A529">
+        <v>528</v>
+      </c>
       <c r="B529" s="4">
         <v>45100.541533773147</v>
       </c>
@@ -24868,7 +26392,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A530">
+        <v>529</v>
+      </c>
       <c r="B530" s="4">
         <v>45102.408443668981</v>
       </c>
@@ -24903,7 +26430,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A531">
+        <v>530</v>
+      </c>
       <c r="B531" s="4">
         <v>45103.432914965277</v>
       </c>
@@ -24938,7 +26468,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A532">
+        <v>531</v>
+      </c>
       <c r="B532" s="4">
         <v>45103.641830092594</v>
       </c>
@@ -24973,7 +26506,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A533">
+        <v>532</v>
+      </c>
       <c r="B533" s="4">
         <v>45103.659820729168</v>
       </c>
@@ -25008,7 +26544,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A534">
+        <v>533</v>
+      </c>
       <c r="B534" s="4">
         <v>45103.665056203703</v>
       </c>
@@ -25043,7 +26582,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A535">
+        <v>534</v>
+      </c>
       <c r="B535" s="4">
         <v>45103.763493182865</v>
       </c>
@@ -25078,7 +26620,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A536">
+        <v>535</v>
+      </c>
       <c r="B536" s="4">
         <v>45104.419769722226</v>
       </c>
@@ -25113,7 +26658,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A537">
+        <v>536</v>
+      </c>
       <c r="B537" s="4">
         <v>45104.420797812505</v>
       </c>
@@ -25148,7 +26696,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A538">
+        <v>537</v>
+      </c>
       <c r="B538" s="4">
         <v>45104.443989444444</v>
       </c>
@@ -25183,7 +26734,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A539">
+        <v>538</v>
+      </c>
       <c r="B539" s="4">
         <v>45104.457712430551</v>
       </c>
@@ -25218,7 +26772,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A540">
+        <v>539</v>
+      </c>
       <c r="B540" s="4">
         <v>45104.509178414351</v>
       </c>
@@ -25253,7 +26810,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A541">
+        <v>540</v>
+      </c>
       <c r="B541" s="4">
         <v>45104.513655844908</v>
       </c>
@@ -25288,7 +26848,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A542">
+        <v>541</v>
+      </c>
       <c r="B542" s="4">
         <v>45104.55653001157</v>
       </c>
@@ -25323,7 +26886,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A543">
+        <v>542</v>
+      </c>
       <c r="B543" s="4">
         <v>45104.556697372682</v>
       </c>
@@ -25358,7 +26924,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A544">
+        <v>543</v>
+      </c>
       <c r="B544" s="4">
         <v>45104.579141875001</v>
       </c>
@@ -25393,7 +26962,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A545">
+        <v>544</v>
+      </c>
       <c r="B545" s="4">
         <v>45104.617449456018</v>
       </c>
@@ -25428,7 +27000,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A546">
+        <v>545</v>
+      </c>
       <c r="B546" s="4">
         <v>45104.634081793978</v>
       </c>
@@ -25463,7 +27038,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A547">
+        <v>546</v>
+      </c>
       <c r="B547" s="4">
         <v>45105.484722731482</v>
       </c>
@@ -25498,7 +27076,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A548">
+        <v>547</v>
+      </c>
       <c r="B548" s="4">
         <v>45105.579988900463</v>
       </c>
@@ -25533,7 +27114,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A549">
+        <v>548</v>
+      </c>
       <c r="B549" s="4">
         <v>45106.506930914351</v>
       </c>
@@ -25568,7 +27152,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A550">
+        <v>549</v>
+      </c>
       <c r="B550" s="4">
         <v>45106.630124409727</v>
       </c>
@@ -25603,7 +27190,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A551">
+        <v>550</v>
+      </c>
       <c r="B551" s="4">
         <v>45106.630986400458</v>
       </c>
@@ -25638,7 +27228,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A552">
+        <v>551</v>
+      </c>
       <c r="B552" s="4">
         <v>45106.638082928243</v>
       </c>
@@ -25673,7 +27266,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A553">
+        <v>552</v>
+      </c>
       <c r="B553" s="4">
         <v>45106.656028993057</v>
       </c>
@@ -25708,7 +27304,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A554">
+        <v>553</v>
+      </c>
       <c r="B554" s="4">
         <v>45106.718505949073</v>
       </c>
@@ -25743,7 +27342,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A555">
+        <v>554</v>
+      </c>
       <c r="B555" s="4">
         <v>45107.377139479169</v>
       </c>
@@ -25778,7 +27380,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A556">
+        <v>555</v>
+      </c>
       <c r="B556" s="4">
         <v>45107.438571157407</v>
       </c>
@@ -25813,7 +27418,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A557">
+        <v>556</v>
+      </c>
       <c r="B557" s="4">
         <v>45107.789521956016</v>
       </c>
@@ -25848,7 +27456,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A558">
+        <v>557</v>
+      </c>
       <c r="B558" s="4">
         <v>45108.460841284723</v>
       </c>
@@ -25883,7 +27494,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A559">
+        <v>558</v>
+      </c>
       <c r="B559" s="4">
         <v>45108.587736921298</v>
       </c>
@@ -25918,7 +27532,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A560">
+        <v>559</v>
+      </c>
       <c r="B560" s="4">
         <v>45109.627095833333</v>
       </c>
@@ -25953,7 +27570,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A561">
+        <v>560</v>
+      </c>
       <c r="B561" s="4">
         <v>45109.653623449078</v>
       </c>
@@ -25988,7 +27608,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A562">
+        <v>561</v>
+      </c>
       <c r="B562" s="4">
         <v>45109.808974074069</v>
       </c>
@@ -26023,7 +27646,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A563">
+        <v>562</v>
+      </c>
       <c r="B563" s="4">
         <v>45109.989844444441</v>
       </c>
@@ -26058,7 +27684,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A564">
+        <v>563</v>
+      </c>
       <c r="B564" s="4">
         <v>45110.469014606482</v>
       </c>
@@ -26093,7 +27722,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A565">
+        <v>564</v>
+      </c>
       <c r="B565" s="4">
         <v>45110.48262116898</v>
       </c>
@@ -26128,7 +27760,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A566">
+        <v>565</v>
+      </c>
       <c r="B566" s="4">
         <v>45110.55039488426</v>
       </c>
@@ -26163,7 +27798,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A567">
+        <v>566</v>
+      </c>
       <c r="B567" s="4">
         <v>45110.641258321761</v>
       </c>
@@ -26198,7 +27836,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A568">
+        <v>567</v>
+      </c>
       <c r="B568" s="4">
         <v>45110.740378287039</v>
       </c>
@@ -26233,7 +27874,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A569">
+        <v>568</v>
+      </c>
       <c r="B569" s="4">
         <v>45110.825115462962</v>
       </c>
@@ -26268,7 +27912,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A570">
+        <v>569</v>
+      </c>
       <c r="B570" s="4">
         <v>45111.41364893518</v>
       </c>
@@ -26303,7 +27950,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A571">
+        <v>570</v>
+      </c>
       <c r="B571" s="4">
         <v>45111.470396145829</v>
       </c>
@@ -26338,7 +27988,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A572">
+        <v>571</v>
+      </c>
       <c r="B572" s="4">
         <v>45111.681437233798</v>
       </c>
@@ -26373,7 +28026,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A573">
+        <v>572</v>
+      </c>
       <c r="B573" s="4">
         <v>45111.694670046301</v>
       </c>
@@ -26408,7 +28064,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A574">
+        <v>573</v>
+      </c>
       <c r="B574" s="4">
         <v>45111.768346273151</v>
       </c>
@@ -26443,7 +28102,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A575">
+        <v>574</v>
+      </c>
       <c r="B575" s="4">
         <v>45111.769771493055</v>
       </c>
@@ -26478,7 +28140,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A576">
+        <v>575</v>
+      </c>
       <c r="B576" s="4">
         <v>45111.979397534727</v>
       </c>
@@ -26513,7 +28178,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A577">
+        <v>576</v>
+      </c>
       <c r="B577" s="4">
         <v>45112.648237997681</v>
       </c>
@@ -26548,7 +28216,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A578">
+        <v>577</v>
+      </c>
       <c r="B578" s="4">
         <v>45112.65122013889</v>
       </c>
@@ -26583,7 +28254,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A579">
+        <v>578</v>
+      </c>
       <c r="B579" s="4">
         <v>45112.653390995372</v>
       </c>
@@ -26618,7 +28292,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A580">
+        <v>579</v>
+      </c>
       <c r="B580" s="4">
         <v>45112.690203124999</v>
       </c>
@@ -26653,7 +28330,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A581">
+        <v>580</v>
+      </c>
       <c r="B581" s="4">
         <v>45112.751406145835</v>
       </c>
@@ -26688,7 +28368,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A582">
+        <v>581</v>
+      </c>
       <c r="B582" s="4">
         <v>45112.814647696759</v>
       </c>
@@ -26723,7 +28406,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A583">
+        <v>582</v>
+      </c>
       <c r="B583" s="4">
         <v>45113.496505451389</v>
       </c>
@@ -26758,7 +28444,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A584">
+        <v>583</v>
+      </c>
       <c r="B584" s="4">
         <v>45113.566454409724</v>
       </c>
@@ -26793,7 +28482,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A585">
+        <v>584</v>
+      </c>
       <c r="B585" s="4">
         <v>45113.568681736113</v>
       </c>
@@ -26828,7 +28520,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A586">
+        <v>585</v>
+      </c>
       <c r="B586" s="4">
         <v>45113.570015428239</v>
       </c>
@@ -26863,7 +28558,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A587">
+        <v>586</v>
+      </c>
       <c r="B587" s="4">
         <v>45113.612643402783</v>
       </c>
@@ -26898,7 +28596,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A588">
+        <v>587</v>
+      </c>
       <c r="B588" s="4">
         <v>45113.62352793981</v>
       </c>
@@ -26933,7 +28634,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A589">
+        <v>588</v>
+      </c>
       <c r="B589" s="4">
         <v>45113.627310254626</v>
       </c>
@@ -26968,7 +28672,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A590">
+        <v>589</v>
+      </c>
       <c r="B590" s="4">
         <v>45113.643922870368</v>
       </c>
@@ -27003,7 +28710,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A591">
+        <v>590</v>
+      </c>
       <c r="B591" s="4">
         <v>45114.478813657406</v>
       </c>
@@ -27038,7 +28748,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A592">
+        <v>591</v>
+      </c>
       <c r="B592" s="4">
         <v>45115.787004247686</v>
       </c>
@@ -27073,7 +28786,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A593">
+        <v>592</v>
+      </c>
       <c r="B593" s="4">
         <v>45116.743072303245</v>
       </c>
